--- a/biology/Médecine/Baptiste_Beaulieu/Baptiste_Beaulieu.xlsx
+++ b/biology/Médecine/Baptiste_Beaulieu/Baptiste_Beaulieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baptiste Beaulieu, né en 1985 à Toulouse, est un médecin généraliste et romancier français.
 </t>
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Baptiste Beaulieu naît en 1985 à Toulouse[1],[2]. Ses parents sont originaires de Noisy et sont d'anciens cheminots[2], qui travaillent par la suite comme conseiller financier pour son père et cadre à la sécurité sociale pour sa mère[1]. Il a deux sœurs, dont l'une, Anna, a été adoptée quand Baptiste Beaulieu avait 4 ans, et est confrontée au racisme pendant sa scolarité[2].
-Indiquant avoir « toujours su qu'il aimait les garçons », ses premières relations amoureuses sont avec des femmes et il ne parle de son homosexualité à ses parents qu'après avoir vécu une crise de sens à la suite d'une intervention à l'âge de 24 ans[2]. Par la suite, il devient militant pour les droits LGBT[2].
-Il a un fils, né en 2023[3].
-Carrière médicale et littéraire
-Baptiste Beaulieu se fait connaître par son blog, Alors voilà, dont il tire la matière de son premier recueil portant le même titre, vendu à 60 000 exemplaires et traduit dans quatorze langues[4] et où il raconte son quotidien d'interne, puis de médecin, ainsi que plus généralement les relations soignants-soignés. Il s'installe comme médecin généraliste à Toulouse en juin 2016. Son cabinet est spécialisé en addictologie et travaille avec deux foyers sociaux qui viennent en aide aux femmes victimes de violences conjugales. Il tient « à ces deux activités, dont chacune nourrit l’autre », ayant choisi, dès l'adolescence, le métier de médecin[5].
-Il reçoit le Prix Méditerranée des lycéens en 2016 pour Alors vous ne serez plus jamais triste[6].
-En 2017, il publie, avec Dominique Mermoux aux dessins, une adaptation en bande dessinée de son premier ouvrage, sous le nom de Les Mille et une vies des urgences. « De ce récit à la fois autobiographique et multibiographique, qui nous laisse entrevoir un échantillon d’humanité livré à ses peurs et ses douleurs les plus profondes, Baptiste Beaulieu ne tire pas seulement une ribambelle d’anecdotes destinées à distraire ou émouvoir le lecteur. Il accomplit un geste politique au sens le plus large du terme, donnant à voir, à travers ce microcosme que constitue l’hôpital, une image de notre société, de ses inquiétudes et de ses travers »[7].
-À partir de septembre 2018, il tient une chronique chaque lundi dans l'émission Grand bien vous fasse sur France Inter.
-En 2019, Arthur Jugnot adapte et met en scène son premier roman Alors voilà au théâtre : le one-man-show Les 1001 vies des urgences est présenté au festival Off d'Avignon par Axel Auriant dans le rôle principal en juillet 2019[8].
-Prises de position sociales et politiques
-Ayant originellement fondé son blog[9] dans l'objectif de "réconcilier soignants et soignés", en racontant les histoires vécues à l'hôpital et au cabinet afin de réhumaniser les rapports entre soignants et soignés. Baptiste Beaulieu milite activement contre « le racisme, le sexisme et l’homophobie dans le milieu médical »[4], en partie sous l'angle de la perte de confiance entre soignés, mais peut également prendre la parole sur d'autres sujets tels que le body-shaming ou encore le cyber-harcèlement dont il voit les conséquences médicales, au cabinet comme dans la recherche. Il prend régulièrement position sur la dégradation des conditions de soin en France.
-Il est signataire de la tribune publiée dans l'édition du 19 janvier 2024 du quotidien Libération qui s'oppose au parrainage de l'édition 2024 du Printemps des poètes par l'écrivain Sylvain Tesson[10].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baptiste Beaulieu naît en 1985 à Toulouse,. Ses parents sont originaires de Noisy et sont d'anciens cheminots, qui travaillent par la suite comme conseiller financier pour son père et cadre à la sécurité sociale pour sa mère. Il a deux sœurs, dont l'une, Anna, a été adoptée quand Baptiste Beaulieu avait 4 ans, et est confrontée au racisme pendant sa scolarité.
+Indiquant avoir « toujours su qu'il aimait les garçons », ses premières relations amoureuses sont avec des femmes et il ne parle de son homosexualité à ses parents qu'après avoir vécu une crise de sens à la suite d'une intervention à l'âge de 24 ans. Par la suite, il devient militant pour les droits LGBT.
+Il a un fils, né en 2023.
 </t>
         </is>
       </c>
@@ -551,35 +559,289 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale et littéraire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baptiste Beaulieu se fait connaître par son blog, Alors voilà, dont il tire la matière de son premier recueil portant le même titre, vendu à 60 000 exemplaires et traduit dans quatorze langues et où il raconte son quotidien d'interne, puis de médecin, ainsi que plus généralement les relations soignants-soignés. Il s'installe comme médecin généraliste à Toulouse en juin 2016. Son cabinet est spécialisé en addictologie et travaille avec deux foyers sociaux qui viennent en aide aux femmes victimes de violences conjugales. Il tient « à ces deux activités, dont chacune nourrit l’autre », ayant choisi, dès l'adolescence, le métier de médecin.
+Il reçoit le Prix Méditerranée des lycéens en 2016 pour Alors vous ne serez plus jamais triste.
+En 2017, il publie, avec Dominique Mermoux aux dessins, une adaptation en bande dessinée de son premier ouvrage, sous le nom de Les Mille et une vies des urgences. « De ce récit à la fois autobiographique et multibiographique, qui nous laisse entrevoir un échantillon d’humanité livré à ses peurs et ses douleurs les plus profondes, Baptiste Beaulieu ne tire pas seulement une ribambelle d’anecdotes destinées à distraire ou émouvoir le lecteur. Il accomplit un geste politique au sens le plus large du terme, donnant à voir, à travers ce microcosme que constitue l’hôpital, une image de notre société, de ses inquiétudes et de ses travers ».
+À partir de septembre 2018, il tient une chronique chaque lundi dans l'émission Grand bien vous fasse sur France Inter.
+En 2019, Arthur Jugnot adapte et met en scène son premier roman Alors voilà au théâtre : le one-man-show Les 1001 vies des urgences est présenté au festival Off d'Avignon par Axel Auriant dans le rôle principal en juillet 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prises de position sociales et politiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant originellement fondé son blog dans l'objectif de "réconcilier soignants et soignés", en racontant les histoires vécues à l'hôpital et au cabinet afin de réhumaniser les rapports entre soignants et soignés. Baptiste Beaulieu milite activement contre « le racisme, le sexisme et l’homophobie dans le milieu médical », en partie sous l'angle de la perte de confiance entre soignés, mais peut également prendre la parole sur d'autres sujets tels que le body-shaming ou encore le cyber-harcèlement dont il voit les conséquences médicales, au cabinet comme dans la recherche. Il prend régulièrement position sur la dégradation des conditions de soin en France.
+Il est signataire de la tribune publiée dans l'édition du 19 janvier 2024 du quotidien Libération qui s'oppose au parrainage de l'édition 2024 du Printemps des poètes par l'écrivain Sylvain Tesson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Alors voilà : les 1001 vies des urgences, Paris, Éditions Fayard, 2013, 320 p. (ISBN 978-2-213-67787-3)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alors voilà : les 1001 vies des urgences, Paris, Éditions Fayard, 2013, 320 p. (ISBN 978-2-213-67787-3)
 Alors vous ne serez plus jamais triste, Paris, Éditions Fayard, 2015, 271 p. (ISBN 978-2-213-68071-2)
 La Ballade de l'enfant gris, Paris, Éditions Mazarine, 2016, 413 p. (ISBN 978-2-86374-444-4)
 Toutes les histoires d'amour du monde, Paris, Éditions Mazarine, 2018, 477 p. (ISBN 978-2-86374-447-5)
 Celle qu’il attendait, Paris, Éditions Fayard, 2021, 331p.  (ISBN 978-2-21372-024-1)
-Où vont les larmes quand elles sèchent, Paris, Editions de l’Iconoclaste, 2023, 271 p.  (ISBN 978-2-37880-382-7)
-Nouvelles
-La Mort est une garce, Le Livre de poche, 2015, 16 p. (ISBN 978-2-253-19195-7 et 2-253-19195-7, lire en ligne)
+Où vont les larmes quand elles sèchent, Paris, Editions de l’Iconoclaste, 2023, 271 p.  (ISBN 978-2-37880-382-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Mort est une garce, Le Livre de poche, 2015, 16 p. (ISBN 978-2-253-19195-7 et 2-253-19195-7, lire en ligne)
 Baptiste Beaulieu, Agnès Ledig et Martin Winckler, Je te donne : 3 histoires d'amour, J'ai lu, 2016, 75 p. (ISBN 978-2-290-13575-4 et 2-290-13575-5, présentation en ligne)
-Exils / Baptiste Beaulieu, Capitaine Alexandre, Gavin's Clemente-Ruiz, Flavie Flament, Lorraine Fouchet, Mahir Guven, Rohân Houssein, M.A.G.I.C., Laure Manel, Alice Polette, Tatiana de Rosnay, Julien Sandrel, Sophie Tal Men, Aurélie Valognes, Librairie générale française, 2019  (ISBN 978-2-253-24082-2)
-Poésie
-N'aie pas peur. Jamais., Invenit, 2020 (ISBN 2376800455)
-La joie et le reste, illustré par Joséphin Bastière, L'Iconoclaste, 2021  (ISBN 978-2-37880-252-3)
-Bandes dessinées
-illustré, colorisé et co-scénarisé par Dominique Mermoux, Les Mille et une vies des urgences, Paris, Rue de Sèvres, 13 septembre 2017, 208 p. (ISBN 978-2-36981-135-0)
-Entre les lignes de Dominique Mermoux, d'après le roman Toutes les histoires d'amour du monde, Rue de Sèvres, 12 mai 2021, 168 p.  (ISBN 9782810202508)[11],[12]
+Exils / Baptiste Beaulieu, Capitaine Alexandre, Gavin's Clemente-Ruiz, Flavie Flament, Lorraine Fouchet, Mahir Guven, Rohân Houssein, M.A.G.I.C., Laure Manel, Alice Polette, Tatiana de Rosnay, Julien Sandrel, Sophie Tal Men, Aurélie Valognes, Librairie générale française, 2019  (ISBN 978-2-253-24082-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N'aie pas peur. Jamais., Invenit, 2020 (ISBN 2376800455)
+La joie et le reste, illustré par Joséphin Bastière, L'Iconoclaste, 2021  (ISBN 978-2-37880-252-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>illustré, colorisé et co-scénarisé par Dominique Mermoux, Les Mille et une vies des urgences, Paris, Rue de Sèvres, 13 septembre 2017, 208 p. (ISBN 978-2-36981-135-0)
+Entre les lignes de Dominique Mermoux, d'après le roman Toutes les histoires d'amour du monde, Rue de Sèvres, 12 mai 2021, 168 p.  (ISBN 9782810202508),
 Les gens sont beaux, illustrations Qin Leng, les Arènes, 2022  (ISBN 979-10-375-0711-2)
-On a deux yeux pour voir, illustrations Qin Leng, les Arènes, 2023  (ISBN 979-10-375-0969-7)
-Articles
-Médecin généraliste, je souffre du syndrome de l'imposteur : opinion, La Libre.be, 6 avril 2018 [lire en ligne]
- Je suis gay, aujourd'hui, j'assume, mais voici ce que j'aurais voulu lire quand j'avais 11 ans, HuffPost, 30 avril 2018 [lire en ligne]
-Chroniques et podcasts
-Alors voilà, au sein de l'émission Grand bien vous fasse sur France Inter; en alternance avec le Dr. Adrian Chaboche Ecouter en ligne</t>
+On a deux yeux pour voir, illustrations Qin Leng, les Arènes, 2023  (ISBN 979-10-375-0969-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Médecin généraliste, je souffre du syndrome de l'imposteur : opinion, La Libre.be, 6 avril 2018 [lire en ligne]
+ Je suis gay, aujourd'hui, j'assume, mais voici ce que j'aurais voulu lire quand j'avais 11 ans, HuffPost, 30 avril 2018 [lire en ligne]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baptiste_Beaulieu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chroniques et podcasts</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alors voilà, au sein de l'émission Grand bien vous fasse sur France Inter; en alternance avec le Dr. Adrian Chaboche Ecouter en ligne</t>
         </is>
       </c>
     </row>
